--- a/SmallTools/ExcelToJson/test.xlsx
+++ b/SmallTools/ExcelToJson/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E505C635-79F1-49C9-8490-0A759866A5D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB585BA-9E37-4D39-B095-87AC325354FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>string-name</t>
-  </si>
-  <si>
     <t>int-num</t>
   </si>
   <si>
     <t>float-ratio</t>
   </si>
   <si>
-    <t>intArr:name:|:-</t>
+    <t>FontaineGuo</t>
+  </si>
+  <si>
+    <t>80-90|100-40</t>
+  </si>
+  <si>
+    <t>string-SerialName</t>
+  </si>
+  <si>
+    <t>intArr:arrName:|:-</t>
   </si>
 </sst>
 </file>
@@ -352,28 +358,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/SmallTools/ExcelToJson/test.xlsx
+++ b/SmallTools/ExcelToJson/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB585BA-9E37-4D39-B095-87AC325354FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56757703-B559-4DEE-B772-6D4E90ECB155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>intArr:arrName:|:-</t>
+  </si>
+  <si>
+    <t>double-damage</t>
   </si>
 </sst>
 </file>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -371,7 +374,7 @@
     <col min="5" max="5" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,19 +390,28 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/SmallTools/ExcelToJson/test.xlsx
+++ b/SmallTools/ExcelToJson/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56757703-B559-4DEE-B772-6D4E90ECB155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39483ED4-64CC-4C28-A86D-DB6C73C75B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,16 +34,16 @@
     <t>FontaineGuo</t>
   </si>
   <si>
-    <t>80-90|100-40</t>
-  </si>
-  <si>
     <t>string-SerialName</t>
   </si>
   <si>
-    <t>intArr:arrName:|:-</t>
-  </si>
-  <si>
     <t>double-damage</t>
+  </si>
+  <si>
+    <t>intArr:nameArr:|:-</t>
+  </si>
+  <si>
+    <t>1-2-3|4-5-6</t>
   </si>
 </sst>
 </file>
@@ -372,6 +372,7 @@
     <col min="2" max="2" width="20.08984375" customWidth="1"/>
     <col min="3" max="4" width="21.1796875" customWidth="1"/>
     <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -379,7 +380,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -388,10 +389,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -407,11 +408,11 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SmallTools/ExcelToJson/test.xlsx
+++ b/SmallTools/ExcelToJson/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39483ED4-64CC-4C28-A86D-DB6C73C75B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EC0E4-32B7-4AEC-A9FE-2600E8AD421D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -43,7 +43,13 @@
     <t>intArr:nameArr:|:-</t>
   </si>
   <si>
-    <t>1-2-3|4-5-6</t>
+    <t>1-2-3-4|5-6-7-8</t>
+  </si>
+  <si>
+    <t>Laplace</t>
+  </si>
+  <si>
+    <t>11-12-13-14|15-16-17-18</t>
   </si>
 </sst>
 </file>
@@ -361,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,6 +421,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
